--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201223_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/03.BaoGiaBH/BG201223_TarisHN.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Hà Nội, ngày 23 tháng 12 Năm 2020</t>
+  </si>
+  <si>
+    <t>báo giá trên Đại lý báo không sửa</t>
   </si>
 </sst>
 </file>
@@ -213,14 +216,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -233,8 +228,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +249,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -647,9 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -735,20 +740,74 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -774,79 +833,28 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,7 +1214,7 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="84" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:I17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1230,385 +1238,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="56" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="69" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="69" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="75" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="72" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="68" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>9</v>
       </c>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
+      <c r="A13" s="72">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="72">
         <v>863586032942116</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="77">
         <v>1</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="78">
         <v>120000</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="78">
         <v>120000</v>
       </c>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="43">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="41">
         <f>SUM(J13:J13)</f>
         <v>120000</v>
       </c>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="50" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="34"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="33"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="35" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -1673,6 +1683,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B16:D17"/>
     <mergeCell ref="E1:J2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="B8:C8"/>
@@ -1684,13 +1701,6 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B16:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
